--- a/e1squad.xlsx
+++ b/e1squad.xlsx
@@ -13256,7 +13256,7 @@
         <v>850</v>
       </c>
       <c r="D97" t="s">
-        <v>1492</v>
+        <v>1482</v>
       </c>
       <c r="E97" t="s">
         <v>1539</v>
@@ -32319,26 +32319,26 @@
       <c r="R344" t="n">
         <v>2.0</v>
       </c>
-      <c r="S344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T344" t="e">
-        <v>#N/A</v>
+      <c r="S344" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T344" t="n">
+        <v>0.0</v>
       </c>
       <c r="U344" t="n">
         <v>0.0</v>
       </c>
-      <c r="V344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="X344" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Y344" t="e">
-        <v>#N/A</v>
+      <c r="V344" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W344" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X344" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="345">
@@ -33661,7 +33661,7 @@
         <v>1103</v>
       </c>
       <c r="D362" t="s">
-        <v>1465</v>
+        <v>1505</v>
       </c>
       <c r="E362" t="s">
         <v>1539</v>
